--- a/pins.xlsx
+++ b/pins.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8220" windowHeight="16980" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="16600" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="455">
   <si>
     <t>Part Pin</t>
   </si>
@@ -1110,30 +1110,6 @@
     <t>P_MDC</t>
   </si>
   <si>
-    <t>P_MDIP0_N</t>
-  </si>
-  <si>
-    <t>P_MDIP0_P</t>
-  </si>
-  <si>
-    <t>P_MDIP1_N</t>
-  </si>
-  <si>
-    <t>P_MDIP1_P</t>
-  </si>
-  <si>
-    <t>P_MDIP2_N</t>
-  </si>
-  <si>
-    <t>P_MDIP2_P</t>
-  </si>
-  <si>
-    <t>P_MDIP3_N</t>
-  </si>
-  <si>
-    <t>P_MDIP3_P</t>
-  </si>
-  <si>
     <t>MDIO_SDA</t>
   </si>
   <si>
@@ -1186,6 +1162,231 @@
   </si>
   <si>
     <t>XTAL2_25MHz_ENET</t>
+  </si>
+  <si>
+    <t>Serial SPI Mem</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Vcc</t>
+  </si>
+  <si>
+    <t>S_N</t>
+  </si>
+  <si>
+    <t>DQ2_VPP_WP_N</t>
+  </si>
+  <si>
+    <t>DQ3_HOLD_N</t>
+  </si>
+  <si>
+    <t>F_D3</t>
+  </si>
+  <si>
+    <t>F_D2_R</t>
+  </si>
+  <si>
+    <t>F_D0_R</t>
+  </si>
+  <si>
+    <t>F_D1_R</t>
+  </si>
+  <si>
+    <t>QSPI_IC_CS_N</t>
+  </si>
+  <si>
+    <t>F_CCLK</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>VCC</t>
+  </si>
+  <si>
+    <t>EEPROM_IIC_SCL</t>
+  </si>
+  <si>
+    <t>EEPROM_IIC_SDA</t>
+  </si>
+  <si>
+    <t>EEPROM</t>
+  </si>
+  <si>
+    <t>GPIO0</t>
+  </si>
+  <si>
+    <t>GPIO1</t>
+  </si>
+  <si>
+    <t>GPIO2</t>
+  </si>
+  <si>
+    <t>TDO</t>
+  </si>
+  <si>
+    <t>VREF</t>
+  </si>
+  <si>
+    <t>Digilent JTAG</t>
+  </si>
+  <si>
+    <t>J_TDI</t>
+  </si>
+  <si>
+    <t>J_TCK</t>
+  </si>
+  <si>
+    <t>J_TMS</t>
+  </si>
+  <si>
+    <t>J_TDO</t>
+  </si>
+  <si>
+    <t>3V3</t>
+  </si>
+  <si>
+    <t>SH1</t>
+  </si>
+  <si>
+    <t>SH2</t>
+  </si>
+  <si>
+    <t>TD0_P</t>
+  </si>
+  <si>
+    <t>TD0_N</t>
+  </si>
+  <si>
+    <t>TD1_P</t>
+  </si>
+  <si>
+    <t>TD1_N</t>
+  </si>
+  <si>
+    <t>TD2_P</t>
+  </si>
+  <si>
+    <t>TD2_N</t>
+  </si>
+  <si>
+    <t>TD3_P</t>
+  </si>
+  <si>
+    <t>TD3_N</t>
+  </si>
+  <si>
+    <t>P_MDI0_P</t>
+  </si>
+  <si>
+    <t>P_MDI0_N</t>
+  </si>
+  <si>
+    <t>P_MDI1_P</t>
+  </si>
+  <si>
+    <t>P_MDI1_N</t>
+  </si>
+  <si>
+    <t>P_MDI2_P</t>
+  </si>
+  <si>
+    <t>P_MDI2_N</t>
+  </si>
+  <si>
+    <t>P_MDI3_P</t>
+  </si>
+  <si>
+    <t>P_MDI3_N</t>
+  </si>
+  <si>
+    <t>VCC1V8_FILT</t>
+  </si>
+  <si>
+    <t>RJ45 port</t>
+  </si>
+  <si>
+    <t>SD Socket</t>
+  </si>
+  <si>
+    <t>CD_DAT3</t>
+  </si>
+  <si>
+    <t>CMD</t>
+  </si>
+  <si>
+    <t>VSS1</t>
+  </si>
+  <si>
+    <t>VDD</t>
+  </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>VSS2</t>
+  </si>
+  <si>
+    <t>DAT0</t>
+  </si>
+  <si>
+    <t>DAT1</t>
+  </si>
+  <si>
+    <t>DAT2</t>
+  </si>
+  <si>
+    <t>DETECT</t>
+  </si>
+  <si>
+    <t>PROTECT</t>
+  </si>
+  <si>
+    <t>DETECT_PROTECT</t>
+  </si>
+  <si>
+    <t>GNDTAB1</t>
+  </si>
+  <si>
+    <t>GNDTAB2</t>
+  </si>
+  <si>
+    <t>GNDTAB3</t>
+  </si>
+  <si>
+    <t>GNDTAB4</t>
+  </si>
+  <si>
+    <t>IOGND1</t>
+  </si>
+  <si>
+    <t>IOGND2</t>
+  </si>
+  <si>
+    <t>SDIO_SDWP</t>
+  </si>
+  <si>
+    <t>SDIO_SDDET</t>
+  </si>
+  <si>
+    <t>SDIO_DAT2</t>
+  </si>
+  <si>
+    <t>SDIO_DAT0</t>
+  </si>
+  <si>
+    <t>SDIO_DAT1</t>
+  </si>
+  <si>
+    <t>SDIO_CLK</t>
+  </si>
+  <si>
+    <t>SDIO_CMD</t>
+  </si>
+  <si>
+    <t>SDIO_CD_DAT3</t>
   </si>
 </sst>
 </file>
@@ -1241,8 +1442,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1290,7 +1513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1312,6 +1535,17 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1333,6 +1567,17 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1662,10 +1907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F322"/>
+  <dimension ref="A1:F612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="C217" sqref="C217"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="H385" sqref="H385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5283,7 +5528,7 @@
         <v>P_RXD5</v>
       </c>
       <c r="F206" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5301,7 +5546,7 @@
         <v>P_RXD6</v>
       </c>
       <c r="F207" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5315,10 +5560,10 @@
         <v>202</v>
       </c>
       <c r="D208" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F208" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5332,10 +5577,10 @@
         <v>203</v>
       </c>
       <c r="D209" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F209" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5352,7 +5597,7 @@
         <v>30</v>
       </c>
       <c r="F210" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5369,7 +5614,7 @@
         <v>30</v>
       </c>
       <c r="F211" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5383,10 +5628,10 @@
         <v>206</v>
       </c>
       <c r="D212" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F212" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5400,10 +5645,10 @@
         <v>207</v>
       </c>
       <c r="D213" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F213" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5420,7 +5665,7 @@
         <v>359</v>
       </c>
       <c r="F214" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5434,10 +5679,10 @@
         <v>209</v>
       </c>
       <c r="D215" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F215" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5455,7 +5700,7 @@
         <v>P_RXD0</v>
       </c>
       <c r="F216" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5473,7 +5718,7 @@
         <v>P_RXD3</v>
       </c>
       <c r="F217" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5490,7 +5735,7 @@
         <v>348</v>
       </c>
       <c r="F218" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5507,7 +5752,7 @@
         <v>352</v>
       </c>
       <c r="F219" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5524,7 +5769,7 @@
         <v>345</v>
       </c>
       <c r="F220" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5541,7 +5786,7 @@
         <v>142</v>
       </c>
       <c r="F221" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5558,7 +5803,7 @@
         <v>358</v>
       </c>
       <c r="F222" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5575,7 +5820,7 @@
         <v>348</v>
       </c>
       <c r="F223" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5589,10 +5834,10 @@
         <v>218</v>
       </c>
       <c r="D224" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F224" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5609,7 +5854,7 @@
         <v>348</v>
       </c>
       <c r="F225" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5627,7 +5872,7 @@
         <v>P_RXD2</v>
       </c>
       <c r="F226" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5645,7 +5890,7 @@
         <v>P_RXD4</v>
       </c>
       <c r="F227" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5663,7 +5908,7 @@
         <v>P_RXD7</v>
       </c>
       <c r="F228" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5680,7 +5925,7 @@
         <v>353</v>
       </c>
       <c r="F229" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5697,7 +5942,7 @@
         <v>353</v>
       </c>
       <c r="F230" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5714,7 +5959,7 @@
         <v>357</v>
       </c>
       <c r="F231" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5731,7 +5976,7 @@
         <v>351</v>
       </c>
       <c r="F232" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5745,10 +5990,10 @@
         <v>225</v>
       </c>
       <c r="D233" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F233" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5762,10 +6007,10 @@
         <v>226</v>
       </c>
       <c r="D234" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F234" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5783,7 +6028,7 @@
         <v>P_RXD1</v>
       </c>
       <c r="F235" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5800,7 +6045,7 @@
         <v>142</v>
       </c>
       <c r="F236" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5817,7 +6062,7 @@
         <v>142</v>
       </c>
       <c r="F237" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5834,7 +6079,7 @@
         <v>142</v>
       </c>
       <c r="F238" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5851,7 +6096,7 @@
         <v>353</v>
       </c>
       <c r="F239" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5868,7 +6113,7 @@
         <v>347</v>
       </c>
       <c r="F240" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5885,7 +6130,7 @@
         <v>360</v>
       </c>
       <c r="F241" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5899,10 +6144,10 @@
         <v>231</v>
       </c>
       <c r="D242" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F242" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5919,7 +6164,7 @@
         <v>354</v>
       </c>
       <c r="F243" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5936,7 +6181,7 @@
         <v>353</v>
       </c>
       <c r="F244" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5953,7 +6198,7 @@
         <v>142</v>
       </c>
       <c r="F245" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5970,7 +6215,7 @@
         <v>142</v>
       </c>
       <c r="F246" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5987,7 +6232,7 @@
         <v>142</v>
       </c>
       <c r="F247" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6004,7 +6249,7 @@
         <v>353</v>
       </c>
       <c r="F248" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6021,7 +6266,7 @@
         <v>356</v>
       </c>
       <c r="F249" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6038,7 +6283,7 @@
         <v>142</v>
       </c>
       <c r="F250" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6056,7 +6301,7 @@
         <v>P_TXD0</v>
       </c>
       <c r="F251" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6070,10 +6315,10 @@
         <v>308</v>
       </c>
       <c r="D252" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F252" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6090,7 +6335,7 @@
         <v>353</v>
       </c>
       <c r="F253" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6107,7 +6352,7 @@
         <v>142</v>
       </c>
       <c r="F254" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6124,7 +6369,7 @@
         <v>142</v>
       </c>
       <c r="F255" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6141,7 +6386,7 @@
         <v>142</v>
       </c>
       <c r="F256" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6158,7 +6403,7 @@
         <v>348</v>
       </c>
       <c r="F257" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6175,7 +6420,7 @@
         <v>348</v>
       </c>
       <c r="F258" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6192,7 +6437,7 @@
         <v>349</v>
       </c>
       <c r="F259" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6209,7 +6454,7 @@
         <v>30</v>
       </c>
       <c r="F260" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6227,7 +6472,7 @@
         <v>P_TXD1</v>
       </c>
       <c r="F261" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6245,7 +6490,7 @@
         <v>P_TXD2</v>
       </c>
       <c r="F262" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6262,7 +6507,7 @@
         <v>142</v>
       </c>
       <c r="F263" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6279,7 +6524,7 @@
         <v>142</v>
       </c>
       <c r="F264" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6296,7 +6541,7 @@
         <v>142</v>
       </c>
       <c r="F265" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6313,7 +6558,7 @@
         <v>348</v>
       </c>
       <c r="F266" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6330,7 +6575,7 @@
         <v>351</v>
       </c>
       <c r="F267" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6347,7 +6592,7 @@
         <v>350</v>
       </c>
       <c r="F268" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6365,7 +6610,7 @@
         <v>P_TXD4</v>
       </c>
       <c r="F269" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -6383,7 +6628,7 @@
         <v>P_TXD3</v>
       </c>
       <c r="F270" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -6401,7 +6646,7 @@
         <v>P_TXD5</v>
       </c>
       <c r="F271" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6418,7 +6663,7 @@
         <v>142</v>
       </c>
       <c r="F272" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6435,7 +6680,7 @@
         <v>142</v>
       </c>
       <c r="F273" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6452,7 +6697,7 @@
         <v>142</v>
       </c>
       <c r="F274" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6469,7 +6714,7 @@
         <v>142</v>
       </c>
       <c r="F275" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6480,13 +6725,13 @@
         <v>260</v>
       </c>
       <c r="C276" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D276" t="s">
         <v>30</v>
       </c>
       <c r="F276" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6500,10 +6745,10 @@
         <v>320</v>
       </c>
       <c r="D277" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F277" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6521,7 +6766,7 @@
         <v>P_TXD6</v>
       </c>
       <c r="F278" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6539,7 +6784,7 @@
         <v>P_TXD7</v>
       </c>
       <c r="F279" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6556,7 +6801,7 @@
         <v>353</v>
       </c>
       <c r="F280" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6573,7 +6818,7 @@
         <v>142</v>
       </c>
       <c r="F281" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6590,7 +6835,7 @@
         <v>142</v>
       </c>
       <c r="F282" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6607,7 +6852,7 @@
         <v>142</v>
       </c>
       <c r="F283" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6624,7 +6869,7 @@
         <v>353</v>
       </c>
       <c r="F284" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6641,7 +6886,7 @@
         <v>348</v>
       </c>
       <c r="F285" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6655,10 +6900,10 @@
         <v>323</v>
       </c>
       <c r="D286" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F286" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6675,7 +6920,7 @@
         <v>348</v>
       </c>
       <c r="F287" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6692,7 +6937,7 @@
         <v>30</v>
       </c>
       <c r="F288" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6706,10 +6951,10 @@
         <v>80</v>
       </c>
       <c r="D289" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F289" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6726,7 +6971,7 @@
         <v>142</v>
       </c>
       <c r="F290" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6743,7 +6988,7 @@
         <v>142</v>
       </c>
       <c r="F291" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6760,7 +7005,7 @@
         <v>142</v>
       </c>
       <c r="F292" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6777,7 +7022,7 @@
         <v>30</v>
       </c>
       <c r="F293" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -6794,7 +7039,7 @@
         <v>30</v>
       </c>
       <c r="F294" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6811,7 +7056,7 @@
         <v>348</v>
       </c>
       <c r="F295" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6828,7 +7073,7 @@
         <v>355</v>
       </c>
       <c r="F296" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6845,7 +7090,7 @@
         <v>348</v>
       </c>
       <c r="F297" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6862,7 +7107,7 @@
         <v>361</v>
       </c>
       <c r="F298" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -6879,7 +7124,7 @@
         <v>346</v>
       </c>
       <c r="F299" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6896,7 +7141,7 @@
         <v>142</v>
       </c>
       <c r="F300" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6913,7 +7158,7 @@
         <v>142</v>
       </c>
       <c r="F301" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -6930,7 +7175,7 @@
         <v>30</v>
       </c>
       <c r="F302" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6947,7 +7192,7 @@
         <v>30</v>
       </c>
       <c r="F303" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6964,7 +7209,7 @@
         <v>30</v>
       </c>
       <c r="F304" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6975,13 +7220,13 @@
         <v>289</v>
       </c>
       <c r="C305" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D305" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F305" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6995,10 +7240,10 @@
         <v>333</v>
       </c>
       <c r="D306" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F306" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -7015,7 +7260,7 @@
         <v>142</v>
       </c>
       <c r="F307" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -7032,7 +7277,7 @@
         <v>142</v>
       </c>
       <c r="F308" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -7049,7 +7294,7 @@
         <v>30</v>
       </c>
       <c r="F309" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -7066,7 +7311,7 @@
         <v>30</v>
       </c>
       <c r="F310" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -7083,7 +7328,7 @@
         <v>142</v>
       </c>
       <c r="F311" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -7100,7 +7345,7 @@
         <v>142</v>
       </c>
       <c r="F312" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -7114,7 +7359,7 @@
         <v>336</v>
       </c>
       <c r="F313" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -7128,10 +7373,10 @@
         <v>337</v>
       </c>
       <c r="D314" t="s">
-        <v>363</v>
+        <v>418</v>
       </c>
       <c r="F314" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -7145,10 +7390,10 @@
         <v>338</v>
       </c>
       <c r="D315" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="F315" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -7162,10 +7407,10 @@
         <v>339</v>
       </c>
       <c r="D316" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
       <c r="F316" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -7179,10 +7424,10 @@
         <v>340</v>
       </c>
       <c r="D317" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="F317" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -7199,7 +7444,7 @@
         <v>142</v>
       </c>
       <c r="F318" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -7213,10 +7458,10 @@
         <v>341</v>
       </c>
       <c r="D319" t="s">
-        <v>367</v>
+        <v>422</v>
       </c>
       <c r="F319" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -7230,10 +7475,10 @@
         <v>342</v>
       </c>
       <c r="D320" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="F320" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7247,10 +7492,10 @@
         <v>343</v>
       </c>
       <c r="D321" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="F321" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7264,10 +7509,2327 @@
         <v>344</v>
       </c>
       <c r="D322" t="s">
+        <v>425</v>
+      </c>
+      <c r="F322" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>100</v>
+      </c>
+      <c r="C323" t="s">
+        <v>30</v>
+      </c>
+      <c r="D323" t="s">
+        <v>30</v>
+      </c>
+      <c r="F323" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>36</v>
+      </c>
+      <c r="C324" t="s">
+        <v>30</v>
+      </c>
+      <c r="D324" t="s">
+        <v>30</v>
+      </c>
+      <c r="F324" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>99</v>
+      </c>
+      <c r="C325" t="s">
+        <v>30</v>
+      </c>
+      <c r="D325" t="s">
+        <v>30</v>
+      </c>
+      <c r="F325" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>35</v>
+      </c>
+      <c r="C326" t="s">
+        <v>30</v>
+      </c>
+      <c r="D326" t="s">
+        <v>30</v>
+      </c>
+      <c r="F326" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>165</v>
+      </c>
+      <c r="C327" t="s">
+        <v>30</v>
+      </c>
+      <c r="D327" t="s">
+        <v>30</v>
+      </c>
+      <c r="F327" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>166</v>
+      </c>
+      <c r="C328" t="s">
+        <v>381</v>
+      </c>
+      <c r="D328" t="s">
+        <v>391</v>
+      </c>
+      <c r="F328" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>167</v>
+      </c>
+      <c r="C329" t="s">
+        <v>4</v>
+      </c>
+      <c r="D329" t="s">
+        <v>142</v>
+      </c>
+      <c r="F329" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>168</v>
+      </c>
+      <c r="C330" t="s">
+        <v>382</v>
+      </c>
+      <c r="D330" t="s">
+        <v>159</v>
+      </c>
+      <c r="F330" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>169</v>
+      </c>
+      <c r="C331" t="s">
+        <v>30</v>
+      </c>
+      <c r="D331" t="s">
+        <v>30</v>
+      </c>
+      <c r="F331" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>174</v>
+      </c>
+      <c r="C332" t="s">
+        <v>30</v>
+      </c>
+      <c r="D332" t="s">
+        <v>30</v>
+      </c>
+      <c r="F332" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>175</v>
+      </c>
+      <c r="C333" t="s">
+        <v>383</v>
+      </c>
+      <c r="D333" t="s">
+        <v>390</v>
+      </c>
+      <c r="F333" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>176</v>
+      </c>
+      <c r="C334" t="s">
+        <v>30</v>
+      </c>
+      <c r="D334" t="s">
+        <v>30</v>
+      </c>
+      <c r="F334" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>177</v>
+      </c>
+      <c r="C335" t="s">
+        <v>384</v>
+      </c>
+      <c r="D335" t="s">
+        <v>387</v>
+      </c>
+      <c r="F335" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>178</v>
+      </c>
+      <c r="C336" t="s">
+        <v>30</v>
+      </c>
+      <c r="D336" t="s">
+        <v>30</v>
+      </c>
+      <c r="F336" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>183</v>
+      </c>
+      <c r="C337" t="s">
+        <v>30</v>
+      </c>
+      <c r="D337" t="s">
+        <v>30</v>
+      </c>
+      <c r="F337" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
+        <v>184</v>
+      </c>
+      <c r="C338" t="s">
+        <v>6</v>
+      </c>
+      <c r="D338" t="s">
+        <v>389</v>
+      </c>
+      <c r="F338" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
+        <v>185</v>
+      </c>
+      <c r="C339" t="s">
+        <v>5</v>
+      </c>
+      <c r="D339" t="s">
+        <v>388</v>
+      </c>
+      <c r="F339" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>186</v>
+      </c>
+      <c r="C340" t="s">
+        <v>385</v>
+      </c>
+      <c r="D340" t="s">
+        <v>386</v>
+      </c>
+      <c r="F340" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>187</v>
+      </c>
+      <c r="C341" t="s">
+        <v>30</v>
+      </c>
+      <c r="D341" t="s">
+        <v>30</v>
+      </c>
+      <c r="F341" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>192</v>
+      </c>
+      <c r="C342" t="s">
+        <v>30</v>
+      </c>
+      <c r="D342" t="s">
+        <v>30</v>
+      </c>
+      <c r="F342" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>193</v>
+      </c>
+      <c r="C343" t="s">
+        <v>30</v>
+      </c>
+      <c r="D343" t="s">
+        <v>30</v>
+      </c>
+      <c r="F343" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>194</v>
+      </c>
+      <c r="C344" t="s">
+        <v>30</v>
+      </c>
+      <c r="D344" t="s">
+        <v>30</v>
+      </c>
+      <c r="F344" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>195</v>
+      </c>
+      <c r="C345" t="s">
+        <v>30</v>
+      </c>
+      <c r="D345" t="s">
+        <v>30</v>
+      </c>
+      <c r="F345" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>196</v>
+      </c>
+      <c r="C346" t="s">
+        <v>30</v>
+      </c>
+      <c r="D346" t="s">
+        <v>30</v>
+      </c>
+      <c r="F346" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347" t="s">
+        <v>101</v>
+      </c>
+      <c r="D347" t="s">
+        <v>142</v>
+      </c>
+      <c r="F347" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>2</v>
+      </c>
+      <c r="C348" t="s">
+        <v>37</v>
+      </c>
+      <c r="D348" t="s">
+        <v>142</v>
+      </c>
+      <c r="F348" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>3</v>
+      </c>
+      <c r="C349" t="s">
+        <v>100</v>
+      </c>
+      <c r="F349" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>4</v>
+      </c>
+      <c r="C350" t="s">
+        <v>142</v>
+      </c>
+      <c r="D350" t="s">
+        <v>142</v>
+      </c>
+      <c r="F350" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>5</v>
+      </c>
+      <c r="C351" t="s">
+        <v>131</v>
+      </c>
+      <c r="D351" t="s">
+        <v>395</v>
+      </c>
+      <c r="F351" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>6</v>
+      </c>
+      <c r="C352" t="s">
+        <v>132</v>
+      </c>
+      <c r="D352" t="s">
+        <v>394</v>
+      </c>
+      <c r="F352" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>7</v>
+      </c>
+      <c r="C353" t="s">
+        <v>392</v>
+      </c>
+      <c r="D353" t="s">
+        <v>142</v>
+      </c>
+      <c r="F353" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>8</v>
+      </c>
+      <c r="C354" t="s">
+        <v>393</v>
+      </c>
+      <c r="D354" t="s">
+        <v>159</v>
+      </c>
+      <c r="F354" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+      <c r="C355" t="s">
+        <v>142</v>
+      </c>
+      <c r="D355" t="s">
+        <v>142</v>
+      </c>
+      <c r="F355" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>2</v>
+      </c>
+      <c r="C356" t="s">
+        <v>332</v>
+      </c>
+      <c r="D356" t="s">
+        <v>404</v>
+      </c>
+      <c r="F356" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>3</v>
+      </c>
+      <c r="C357" t="s">
+        <v>330</v>
+      </c>
+      <c r="D357" t="s">
+        <v>403</v>
+      </c>
+      <c r="F357" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>4</v>
+      </c>
+      <c r="C358" t="s">
+        <v>331</v>
+      </c>
+      <c r="D358" t="s">
+        <v>405</v>
+      </c>
+      <c r="F358" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>5</v>
+      </c>
+      <c r="C359" t="s">
+        <v>397</v>
+      </c>
+      <c r="D359" t="s">
+        <v>30</v>
+      </c>
+      <c r="F359" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>6</v>
+      </c>
+      <c r="C360" t="s">
+        <v>398</v>
+      </c>
+      <c r="D360" t="s">
+        <v>30</v>
+      </c>
+      <c r="F360" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>7</v>
+      </c>
+      <c r="C361" t="s">
+        <v>399</v>
+      </c>
+      <c r="D361" t="s">
+        <v>30</v>
+      </c>
+      <c r="F361" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>8</v>
+      </c>
+      <c r="C362" t="s">
+        <v>400</v>
+      </c>
+      <c r="D362" t="s">
+        <v>406</v>
+      </c>
+      <c r="F362" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>9</v>
+      </c>
+      <c r="C363" t="s">
+        <v>401</v>
+      </c>
+      <c r="D363" t="s">
+        <v>159</v>
+      </c>
+      <c r="F363" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>10</v>
+      </c>
+      <c r="C364" t="s">
+        <v>142</v>
+      </c>
+      <c r="D364" t="s">
+        <v>142</v>
+      </c>
+      <c r="F364" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>11</v>
+      </c>
+      <c r="C365" t="s">
+        <v>407</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F365" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366" t="s">
+        <v>410</v>
+      </c>
+      <c r="D366" t="s">
+        <v>418</v>
+      </c>
+      <c r="F366" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>2</v>
+      </c>
+      <c r="C367" t="s">
+        <v>411</v>
+      </c>
+      <c r="D367" t="s">
+        <v>419</v>
+      </c>
+      <c r="F367" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>3</v>
+      </c>
+      <c r="C368" t="s">
+        <v>412</v>
+      </c>
+      <c r="D368" t="s">
+        <v>420</v>
+      </c>
+      <c r="F368" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369">
         <v>368</v>
       </c>
-      <c r="F322" t="s">
+      <c r="B369">
+        <v>4</v>
+      </c>
+      <c r="C369" t="s">
+        <v>413</v>
+      </c>
+      <c r="D369" t="s">
+        <v>421</v>
+      </c>
+      <c r="F369" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>5</v>
+      </c>
+      <c r="C370" t="s">
+        <v>414</v>
+      </c>
+      <c r="D370" t="s">
+        <v>422</v>
+      </c>
+      <c r="F370" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>6</v>
+      </c>
+      <c r="C371" t="s">
+        <v>415</v>
+      </c>
+      <c r="D371" t="s">
+        <v>423</v>
+      </c>
+      <c r="F371" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>7</v>
+      </c>
+      <c r="C372" t="s">
+        <v>416</v>
+      </c>
+      <c r="D372" t="s">
+        <v>424</v>
+      </c>
+      <c r="F372" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>8</v>
+      </c>
+      <c r="C373" t="s">
+        <v>417</v>
+      </c>
+      <c r="D373" t="s">
+        <v>425</v>
+      </c>
+      <c r="F373" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>9</v>
+      </c>
+      <c r="C374" t="s">
+        <v>393</v>
+      </c>
+      <c r="D374" t="s">
+        <v>426</v>
+      </c>
+      <c r="F374" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>10</v>
+      </c>
+      <c r="C375" t="s">
+        <v>142</v>
+      </c>
+      <c r="D375" t="s">
+        <v>142</v>
+      </c>
+      <c r="F375" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>408</v>
+      </c>
+      <c r="C376" t="s">
+        <v>408</v>
+      </c>
+      <c r="F376" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>409</v>
+      </c>
+      <c r="C377" t="s">
+        <v>409</v>
+      </c>
+      <c r="F377" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378" t="s">
+        <v>429</v>
+      </c>
+      <c r="D378" t="s">
+        <v>454</v>
+      </c>
+      <c r="F378" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>2</v>
+      </c>
+      <c r="C379" t="s">
+        <v>430</v>
+      </c>
+      <c r="D379" t="s">
+        <v>453</v>
+      </c>
+      <c r="F379" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>3</v>
+      </c>
+      <c r="C380" t="s">
+        <v>431</v>
+      </c>
+      <c r="D380" t="s">
+        <v>142</v>
+      </c>
+      <c r="F380" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>4</v>
+      </c>
+      <c r="C381" t="s">
+        <v>432</v>
+      </c>
+      <c r="D381" t="s">
+        <v>159</v>
+      </c>
+      <c r="F381" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>5</v>
+      </c>
+      <c r="C382" t="s">
+        <v>433</v>
+      </c>
+      <c r="D382" t="s">
+        <v>452</v>
+      </c>
+      <c r="F382" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>6</v>
+      </c>
+      <c r="C383" t="s">
+        <v>434</v>
+      </c>
+      <c r="D383" t="s">
+        <v>142</v>
+      </c>
+      <c r="F383" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>7</v>
+      </c>
+      <c r="C384" t="s">
+        <v>435</v>
+      </c>
+      <c r="D384" t="s">
+        <v>450</v>
+      </c>
+      <c r="F384" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>8</v>
+      </c>
+      <c r="C385" t="s">
+        <v>436</v>
+      </c>
+      <c r="D385" t="s">
+        <v>451</v>
+      </c>
+      <c r="F385" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386">
         <v>385</v>
+      </c>
+      <c r="B386">
+        <v>9</v>
+      </c>
+      <c r="C386" t="s">
+        <v>437</v>
+      </c>
+      <c r="D386" t="s">
+        <v>449</v>
+      </c>
+      <c r="F386" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>10</v>
+      </c>
+      <c r="C387" t="s">
+        <v>438</v>
+      </c>
+      <c r="D387" t="s">
+        <v>448</v>
+      </c>
+      <c r="F387" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>11</v>
+      </c>
+      <c r="C388" t="s">
+        <v>439</v>
+      </c>
+      <c r="D388" t="s">
+        <v>447</v>
+      </c>
+      <c r="F388" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>12</v>
+      </c>
+      <c r="C389" t="s">
+        <v>440</v>
+      </c>
+      <c r="D389" t="s">
+        <v>142</v>
+      </c>
+      <c r="F389" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>13</v>
+      </c>
+      <c r="C390" t="s">
+        <v>441</v>
+      </c>
+      <c r="D390" t="s">
+        <v>142</v>
+      </c>
+      <c r="F390" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>14</v>
+      </c>
+      <c r="C391" t="s">
+        <v>442</v>
+      </c>
+      <c r="D391" t="s">
+        <v>142</v>
+      </c>
+      <c r="F391" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>15</v>
+      </c>
+      <c r="C392" t="s">
+        <v>443</v>
+      </c>
+      <c r="D392" t="s">
+        <v>142</v>
+      </c>
+      <c r="F392" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>16</v>
+      </c>
+      <c r="C393" t="s">
+        <v>444</v>
+      </c>
+      <c r="D393" t="s">
+        <v>142</v>
+      </c>
+      <c r="F393" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>17</v>
+      </c>
+      <c r="C394" t="s">
+        <v>445</v>
+      </c>
+      <c r="D394" t="s">
+        <v>142</v>
+      </c>
+      <c r="F394" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>18</v>
+      </c>
+      <c r="C395" t="s">
+        <v>446</v>
+      </c>
+      <c r="D395" t="s">
+        <v>142</v>
+      </c>
+      <c r="F395" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612">
+        <v>611</v>
       </c>
     </row>
   </sheetData>

--- a/pins.xlsx
+++ b/pins.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="16600" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="16620" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1909,7 +1909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
       <selection activeCell="H385" sqref="H385"/>
     </sheetView>
   </sheetViews>

--- a/pins.xlsx
+++ b/pins.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="16620" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="8580" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="537">
   <si>
     <t>Part Pin</t>
   </si>
@@ -426,9 +426,6 @@
     <t>Net</t>
   </si>
   <si>
-    <t>DRAM</t>
-  </si>
-  <si>
     <t>D_A0</t>
   </si>
   <si>
@@ -1155,18 +1152,12 @@
     <t>P_TXER</t>
   </si>
   <si>
-    <t>Eth PHY</t>
-  </si>
-  <si>
     <t>XTAL1_25MHz_ENET</t>
   </si>
   <si>
     <t>XTAL2_25MHz_ENET</t>
   </si>
   <si>
-    <t>Serial SPI Mem</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -1212,9 +1203,6 @@
     <t>EEPROM_IIC_SDA</t>
   </si>
   <si>
-    <t>EEPROM</t>
-  </si>
-  <si>
     <t>GPIO0</t>
   </si>
   <si>
@@ -1230,9 +1218,6 @@
     <t>VREF</t>
   </si>
   <si>
-    <t>Digilent JTAG</t>
-  </si>
-  <si>
     <t>J_TDI</t>
   </si>
   <si>
@@ -1305,12 +1290,6 @@
     <t>VCC1V8_FILT</t>
   </si>
   <si>
-    <t>RJ45 port</t>
-  </si>
-  <si>
-    <t>SD Socket</t>
-  </si>
-  <si>
     <t>CD_DAT3</t>
   </si>
   <si>
@@ -1387,6 +1366,273 @@
   </si>
   <si>
     <t>SDIO_CD_DAT3</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>VCC12_P_IN</t>
+  </si>
+  <si>
+    <t>OE</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>USER_CLOCK_P</t>
+  </si>
+  <si>
+    <t>USER_CLOCK_N</t>
+  </si>
+  <si>
+    <t>USER_CLOCK_SDA</t>
+  </si>
+  <si>
+    <t>USER_CLOCK_SCL</t>
+  </si>
+  <si>
+    <t>OUT_B</t>
+  </si>
+  <si>
+    <t>SYSCLK_P</t>
+  </si>
+  <si>
+    <t>SYSCLK_N</t>
+  </si>
+  <si>
+    <t>VDDA</t>
+  </si>
+  <si>
+    <t>XTAL_OUT</t>
+  </si>
+  <si>
+    <t>XTAL_IN</t>
+  </si>
+  <si>
+    <t>NQO</t>
+  </si>
+  <si>
+    <t>QO</t>
+  </si>
+  <si>
+    <t>VDD_EPHYCLK</t>
+  </si>
+  <si>
+    <t>VDDA_EPHYCLK</t>
+  </si>
+  <si>
+    <t>EPHYCLK_XTAL_OUT</t>
+  </si>
+  <si>
+    <t>EPHYCLK_XTAL_IN</t>
+  </si>
+  <si>
+    <t>EPHYCLK_Q0_C_N</t>
+  </si>
+  <si>
+    <t>EPHYCLK_Q0_C_P</t>
+  </si>
+  <si>
+    <t>OE1_N</t>
+  </si>
+  <si>
+    <t>Y8</t>
+  </si>
+  <si>
+    <t>Y7</t>
+  </si>
+  <si>
+    <t>Y6</t>
+  </si>
+  <si>
+    <t>Y5</t>
+  </si>
+  <si>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>OE2_N</t>
+  </si>
+  <si>
+    <t>JTAG_TDI</t>
+  </si>
+  <si>
+    <t>JTAG_TMS</t>
+  </si>
+  <si>
+    <t>JTAG_TCK</t>
+  </si>
+  <si>
+    <t>FPGA_TCK_BUF</t>
+  </si>
+  <si>
+    <t>FPGA_TMS_BUF</t>
+  </si>
+  <si>
+    <t>FPGA_TDI_BUF</t>
+  </si>
+  <si>
+    <t>SD0</t>
+  </si>
+  <si>
+    <t>SC0</t>
+  </si>
+  <si>
+    <t>SD1</t>
+  </si>
+  <si>
+    <t>SC1</t>
+  </si>
+  <si>
+    <t>SD2</t>
+  </si>
+  <si>
+    <t>SC2</t>
+  </si>
+  <si>
+    <t>SD3</t>
+  </si>
+  <si>
+    <t>SC3</t>
+  </si>
+  <si>
+    <t>SD4</t>
+  </si>
+  <si>
+    <t>SC4</t>
+  </si>
+  <si>
+    <t>SD5</t>
+  </si>
+  <si>
+    <t>SC5</t>
+  </si>
+  <si>
+    <t>SD6</t>
+  </si>
+  <si>
+    <t>SC6</t>
+  </si>
+  <si>
+    <t>SD7</t>
+  </si>
+  <si>
+    <t>SC7</t>
+  </si>
+  <si>
+    <t>RESET_B</t>
+  </si>
+  <si>
+    <t>THERMPAD</t>
+  </si>
+  <si>
+    <t>IIC_SDA_DDR3</t>
+  </si>
+  <si>
+    <t>IIC_SCL_DDR3</t>
+  </si>
+  <si>
+    <t>SI5324_SDA</t>
+  </si>
+  <si>
+    <t>SI5324_SCL</t>
+  </si>
+  <si>
+    <t>R56</t>
+  </si>
+  <si>
+    <t>IIC_SCL_MAIN</t>
+  </si>
+  <si>
+    <t>IIC_SDA_MAIN</t>
+  </si>
+  <si>
+    <t>R242</t>
+  </si>
+  <si>
+    <t>R243</t>
+  </si>
+  <si>
+    <t>IIC_MUX_RESET_B</t>
+  </si>
+  <si>
+    <t>VCCA</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>DIR</t>
+  </si>
+  <si>
+    <t>VCCB</t>
+  </si>
+  <si>
+    <t>R306/R307</t>
+  </si>
+  <si>
+    <t>FPGA_INIT_B</t>
+  </si>
+  <si>
+    <t>FPGA_3V3</t>
+  </si>
+  <si>
+    <t>U66</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>U52</t>
+  </si>
+  <si>
+    <t>U19</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>U26</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>U29</t>
+  </si>
+  <si>
+    <t>U51</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U34</t>
+  </si>
+  <si>
+    <t>J49</t>
   </si>
 </sst>
 </file>
@@ -1442,8 +1688,84 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1513,7 +1835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="141">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1546,6 +1868,44 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1578,6 +1938,44 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1909,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="H385" sqref="H385"/>
+    <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
+      <selection activeCell="B475" sqref="B475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1921,7 +2319,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1950,10 +2348,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1967,10 +2365,10 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1988,7 +2386,7 @@
         <v>D_D0</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2006,7 +2404,7 @@
         <v>D_D1</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2020,10 +2418,10 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2041,7 +2439,7 @@
         <v>D_DM0</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2055,10 +2453,10 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2076,7 +2474,7 @@
         <v>D_D2</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2094,7 +2492,7 @@
         <v>D_D3</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2108,10 +2506,10 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2129,7 +2527,7 @@
         <v>D_D8</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2147,7 +2545,7 @@
         <v>D_D9</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2161,10 +2559,10 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2182,7 +2580,7 @@
         <v>D_DQS1_N</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2200,7 +2598,7 @@
         <v>D_DQS1_P</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2214,10 +2612,10 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F17" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2235,7 +2633,7 @@
         <v>D_D10</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2253,7 +2651,7 @@
         <v>D_D11</v>
       </c>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2267,10 +2665,10 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F20" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2288,7 +2686,7 @@
         <v>D_D16</v>
       </c>
       <c r="F21" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2306,7 +2704,7 @@
         <v>D_D17</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2320,10 +2718,10 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2341,7 +2739,7 @@
         <v>D_DQS2_N</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2359,7 +2757,7 @@
         <v>D_DQS2_P</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2373,10 +2771,10 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2394,7 +2792,7 @@
         <v>D_D18</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2412,7 +2810,7 @@
         <v>D_D19</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2426,10 +2824,10 @@
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F29" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2447,7 +2845,7 @@
         <v>D_D24</v>
       </c>
       <c r="F30" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2465,7 +2863,7 @@
         <v>D_D25</v>
       </c>
       <c r="F31" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2479,10 +2877,10 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F32" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2500,7 +2898,7 @@
         <v>D_DM3</v>
       </c>
       <c r="F33" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2514,10 +2912,10 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F34" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2535,7 +2933,7 @@
         <v>D_D26</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2553,7 +2951,7 @@
         <v>D_D27</v>
       </c>
       <c r="F36" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2567,10 +2965,10 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F37" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2584,10 +2982,10 @@
         <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F38" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2601,10 +2999,10 @@
         <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F39" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2621,7 +3019,7 @@
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2639,7 +3037,7 @@
         <v>D_BA2</v>
       </c>
       <c r="F41" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2653,10 +3051,10 @@
         <v>29</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F42" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2674,7 +3072,7 @@
         <v>D_A12</v>
       </c>
       <c r="F43" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2692,7 +3090,7 @@
         <v>D_A9</v>
       </c>
       <c r="F44" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2706,10 +3104,10 @@
         <v>29</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F45" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2727,7 +3125,7 @@
         <v>D_A8</v>
       </c>
       <c r="F46" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2745,7 +3143,7 @@
         <v>D_A5</v>
       </c>
       <c r="F47" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2759,10 +3157,10 @@
         <v>29</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F48" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2780,7 +3178,7 @@
         <v>D_A3</v>
       </c>
       <c r="F49" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2798,7 +3196,7 @@
         <v>D_A1</v>
       </c>
       <c r="F50" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2812,10 +3210,10 @@
         <v>29</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F51" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2829,10 +3227,10 @@
         <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F52" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2846,10 +3244,10 @@
         <v>38</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F53" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2863,10 +3261,10 @@
         <v>29</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F54" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2884,7 +3282,7 @@
         <v>D_A10</v>
       </c>
       <c r="F55" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2902,7 +3300,7 @@
         <v>D_BA0</v>
       </c>
       <c r="F56" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2916,10 +3314,10 @@
         <v>29</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F57" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2933,10 +3331,10 @@
         <v>42</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F58" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2950,10 +3348,10 @@
         <v>43</v>
       </c>
       <c r="D59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F59" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2967,10 +3365,10 @@
         <v>29</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F60" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2988,7 +3386,7 @@
         <v>D_A13</v>
       </c>
       <c r="F61" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2999,13 +3397,13 @@
         <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F62" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3019,10 +3417,10 @@
         <v>29</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F63" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3033,13 +3431,13 @@
         <v>125</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D64" t="s">
         <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3053,10 +3451,10 @@
         <v>4</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F65" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3074,7 +3472,7 @@
         <v>D_D32</v>
       </c>
       <c r="F66" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3092,7 +3490,7 @@
         <v>D_D33</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3106,10 +3504,10 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3127,7 +3525,7 @@
         <v>D_DQS4_N</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3145,7 +3543,7 @@
         <v>D_DQS4_P</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3159,10 +3557,10 @@
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3180,7 +3578,7 @@
         <v>D_D34</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3198,7 +3596,7 @@
         <v>D_D35</v>
       </c>
       <c r="F73" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3212,10 +3610,10 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3233,7 +3631,7 @@
         <v>D_D40</v>
       </c>
       <c r="F75" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3251,7 +3649,7 @@
         <v>D_D41</v>
       </c>
       <c r="F76" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3265,10 +3663,10 @@
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F77" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3286,7 +3684,7 @@
         <v>D_DM5</v>
       </c>
       <c r="F78" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3300,10 +3698,10 @@
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F79" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3321,7 +3719,7 @@
         <v>D_D42</v>
       </c>
       <c r="F80" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3339,7 +3737,7 @@
         <v>D_D43</v>
       </c>
       <c r="F81" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3353,10 +3751,10 @@
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F82" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3374,7 +3772,7 @@
         <v>D_D48</v>
       </c>
       <c r="F83" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3392,7 +3790,7 @@
         <v>D_D49</v>
       </c>
       <c r="F84" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3406,10 +3804,10 @@
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F85" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3427,7 +3825,7 @@
         <v>D_DQS6_N</v>
       </c>
       <c r="F86" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3445,7 +3843,7 @@
         <v>D_DQS6_P</v>
       </c>
       <c r="F87" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3459,10 +3857,10 @@
         <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F88" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3480,7 +3878,7 @@
         <v>D_D50</v>
       </c>
       <c r="F89" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3498,7 +3896,7 @@
         <v>D_D51</v>
       </c>
       <c r="F90" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3512,10 +3910,10 @@
         <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F91" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3533,7 +3931,7 @@
         <v>D_D56</v>
       </c>
       <c r="F92" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3551,7 +3949,7 @@
         <v>D_D57</v>
       </c>
       <c r="F93" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3565,10 +3963,10 @@
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F94" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3586,7 +3984,7 @@
         <v>D_DM7</v>
       </c>
       <c r="F95" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3600,10 +3998,10 @@
         <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F96" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3621,7 +4019,7 @@
         <v>D_D58</v>
       </c>
       <c r="F97" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3639,7 +4037,7 @@
         <v>D_D59</v>
       </c>
       <c r="F98" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3653,10 +4051,10 @@
         <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F99" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3670,10 +4068,10 @@
         <v>67</v>
       </c>
       <c r="D100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F100" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3687,10 +4085,10 @@
         <v>68</v>
       </c>
       <c r="D101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F101" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3704,10 +4102,10 @@
         <v>69</v>
       </c>
       <c r="D102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F102" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3721,10 +4119,10 @@
         <v>70</v>
       </c>
       <c r="D103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F103" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3738,10 +4136,10 @@
         <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F104" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3759,7 +4157,7 @@
         <v>D_D4</v>
       </c>
       <c r="F105" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3777,7 +4175,7 @@
         <v>D_D5</v>
       </c>
       <c r="F106" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3791,10 +4189,10 @@
         <v>4</v>
       </c>
       <c r="D107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F107" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3812,7 +4210,7 @@
         <v>D_DQS0_N</v>
       </c>
       <c r="F108" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3830,7 +4228,7 @@
         <v>D_DQS0_P</v>
       </c>
       <c r="F109" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3844,10 +4242,10 @@
         <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F110" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3865,7 +4263,7 @@
         <v>D_D6</v>
       </c>
       <c r="F111" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3883,7 +4281,7 @@
         <v>D_D7</v>
       </c>
       <c r="F112" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3897,10 +4295,10 @@
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F113" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3918,7 +4316,7 @@
         <v>D_D12</v>
       </c>
       <c r="F114" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3936,7 +4334,7 @@
         <v>D_D13</v>
       </c>
       <c r="F115" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3950,10 +4348,10 @@
         <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F116" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3971,7 +4369,7 @@
         <v>D_DM1</v>
       </c>
       <c r="F117" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3985,10 +4383,10 @@
         <v>80</v>
       </c>
       <c r="D118" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F118" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4002,10 +4400,10 @@
         <v>4</v>
       </c>
       <c r="D119" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F119" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4023,7 +4421,7 @@
         <v>D_D14</v>
       </c>
       <c r="F120" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4041,7 +4439,7 @@
         <v>D_D15</v>
       </c>
       <c r="F121" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4055,10 +4453,10 @@
         <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F122" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4076,7 +4474,7 @@
         <v>D_D20</v>
       </c>
       <c r="F123" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4094,7 +4492,7 @@
         <v>D_D21</v>
       </c>
       <c r="F124" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4108,10 +4506,10 @@
         <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F125" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4129,7 +4527,7 @@
         <v>D_DM2</v>
       </c>
       <c r="F126" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4143,10 +4541,10 @@
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F127" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4164,7 +4562,7 @@
         <v>D_D22</v>
       </c>
       <c r="F128" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4182,7 +4580,7 @@
         <v>D_D23</v>
       </c>
       <c r="F129" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4196,10 +4594,10 @@
         <v>4</v>
       </c>
       <c r="D130" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F130" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4217,7 +4615,7 @@
         <v>D_D28</v>
       </c>
       <c r="F131" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4235,7 +4633,7 @@
         <v>D_D29</v>
       </c>
       <c r="F132" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4249,10 +4647,10 @@
         <v>4</v>
       </c>
       <c r="D133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F133" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4270,7 +4668,7 @@
         <v>D_DQS3_N</v>
       </c>
       <c r="F134" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4288,7 +4686,7 @@
         <v>D_DQS3_P</v>
       </c>
       <c r="F135" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4302,10 +4700,10 @@
         <v>4</v>
       </c>
       <c r="D136" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F136" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4323,7 +4721,7 @@
         <v>D_D30</v>
       </c>
       <c r="F137" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4341,7 +4739,7 @@
         <v>D_D31</v>
       </c>
       <c r="F138" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4355,10 +4753,10 @@
         <v>4</v>
       </c>
       <c r="D139" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F139" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4369,13 +4767,13 @@
         <v>74</v>
       </c>
       <c r="C140" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D140" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F140" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4389,10 +4787,10 @@
         <v>29</v>
       </c>
       <c r="D141" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F141" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4410,7 +4808,7 @@
         <v>D_A15</v>
       </c>
       <c r="F142" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4428,7 +4826,7 @@
         <v>D_A14</v>
       </c>
       <c r="F143" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4442,10 +4840,10 @@
         <v>29</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F144" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4463,7 +4861,7 @@
         <v>D_A11</v>
       </c>
       <c r="F145" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4481,7 +4879,7 @@
         <v>D_A7</v>
       </c>
       <c r="F146" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4495,10 +4893,10 @@
         <v>29</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F147" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4516,7 +4914,7 @@
         <v>D_A6</v>
       </c>
       <c r="F148" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4534,7 +4932,7 @@
         <v>D_A4</v>
       </c>
       <c r="F149" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4548,10 +4946,10 @@
         <v>29</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F150" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4569,7 +4967,7 @@
         <v>D_A2</v>
       </c>
       <c r="F151" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4583,10 +4981,10 @@
         <v>101</v>
       </c>
       <c r="D152" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F152" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4600,10 +4998,10 @@
         <v>29</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F153" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4617,10 +5015,10 @@
         <v>102</v>
       </c>
       <c r="D154" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F154" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4634,10 +5032,10 @@
         <v>103</v>
       </c>
       <c r="D155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F155" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4651,10 +5049,10 @@
         <v>29</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F156" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4672,7 +5070,7 @@
         <v>D_BA1</v>
       </c>
       <c r="F157" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4686,10 +5084,10 @@
         <v>105</v>
       </c>
       <c r="D158" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F158" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4703,10 +5101,10 @@
         <v>29</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F159" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4720,10 +5118,10 @@
         <v>106</v>
       </c>
       <c r="D160" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F160" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4737,10 +5135,10 @@
         <v>107</v>
       </c>
       <c r="D161" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F161" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4754,10 +5152,10 @@
         <v>29</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F162" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4768,13 +5166,13 @@
         <v>120</v>
       </c>
       <c r="C163" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F163" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4791,7 +5189,7 @@
         <v>30</v>
       </c>
       <c r="F164" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4805,10 +5203,10 @@
         <v>29</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F165" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4822,10 +5220,10 @@
         <v>108</v>
       </c>
       <c r="D166" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F166" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4839,10 +5237,10 @@
         <v>4</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F167" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4860,7 +5258,7 @@
         <v>D_D36</v>
       </c>
       <c r="F168" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4878,7 +5276,7 @@
         <v>D_D37</v>
       </c>
       <c r="F169" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4892,10 +5290,10 @@
         <v>4</v>
       </c>
       <c r="D170" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F170" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4913,7 +5311,7 @@
         <v>D_DM4</v>
       </c>
       <c r="F171" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4927,10 +5325,10 @@
         <v>4</v>
       </c>
       <c r="D172" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F172" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4948,7 +5346,7 @@
         <v>D_D38</v>
       </c>
       <c r="F173" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4966,7 +5364,7 @@
         <v>D_D39</v>
       </c>
       <c r="F174" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4980,10 +5378,10 @@
         <v>4</v>
       </c>
       <c r="D175" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F175" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5001,7 +5399,7 @@
         <v>D_D44</v>
       </c>
       <c r="F176" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5019,7 +5417,7 @@
         <v>D_D45</v>
       </c>
       <c r="F177" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5033,10 +5431,10 @@
         <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F178" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5054,7 +5452,7 @@
         <v>D_DQS5_N</v>
       </c>
       <c r="F179" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5072,7 +5470,7 @@
         <v>D_DQS5_P</v>
       </c>
       <c r="F180" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5086,10 +5484,10 @@
         <v>4</v>
       </c>
       <c r="D181" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F181" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5107,7 +5505,7 @@
         <v>D_D46</v>
       </c>
       <c r="F182" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5125,7 +5523,7 @@
         <v>D_D47</v>
       </c>
       <c r="F183" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5139,10 +5537,10 @@
         <v>4</v>
       </c>
       <c r="D184" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F184" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5160,7 +5558,7 @@
         <v>D_D52</v>
       </c>
       <c r="F185" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5178,7 +5576,7 @@
         <v>D_D53</v>
       </c>
       <c r="F186" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5192,10 +5590,10 @@
         <v>4</v>
       </c>
       <c r="D187" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F187" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5213,7 +5611,7 @@
         <v>D_DM6</v>
       </c>
       <c r="F188" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5227,10 +5625,10 @@
         <v>4</v>
       </c>
       <c r="D189" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F189" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5248,7 +5646,7 @@
         <v>D_D54</v>
       </c>
       <c r="F190" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5266,7 +5664,7 @@
         <v>D_D55</v>
       </c>
       <c r="F191" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5280,10 +5678,10 @@
         <v>4</v>
       </c>
       <c r="D192" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F192" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5301,7 +5699,7 @@
         <v>D_D60</v>
       </c>
       <c r="F193" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5319,7 +5717,7 @@
         <v>D_D61</v>
       </c>
       <c r="F194" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5333,10 +5731,10 @@
         <v>4</v>
       </c>
       <c r="D195" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F195" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5354,7 +5752,7 @@
         <v>D_DQS7_N</v>
       </c>
       <c r="F196" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5372,7 +5770,7 @@
         <v>D_DQS7_P</v>
       </c>
       <c r="F197" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5386,10 +5784,10 @@
         <v>4</v>
       </c>
       <c r="D198" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F198" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5407,7 +5805,7 @@
         <v>D_D62</v>
       </c>
       <c r="F199" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5425,7 +5823,7 @@
         <v>D_D63</v>
       </c>
       <c r="F200" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5439,10 +5837,10 @@
         <v>4</v>
       </c>
       <c r="D201" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F201" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5453,13 +5851,13 @@
         <v>198</v>
       </c>
       <c r="C202" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D202" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F202" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5473,10 +5871,10 @@
         <v>131</v>
       </c>
       <c r="D203" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F203" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5490,10 +5888,10 @@
         <v>132</v>
       </c>
       <c r="D204" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F204" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5507,10 +5905,10 @@
         <v>70</v>
       </c>
       <c r="D205" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F205" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5521,14 +5919,14 @@
         <v>37</v>
       </c>
       <c r="C206" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D206" t="str">
         <f>"P_"&amp;C206</f>
         <v>P_RXD5</v>
       </c>
       <c r="F206" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5539,14 +5937,14 @@
         <v>100</v>
       </c>
       <c r="C207" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D207" t="str">
         <f>"P_"&amp;C207</f>
         <v>P_RXD6</v>
       </c>
       <c r="F207" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5557,13 +5955,13 @@
         <v>36</v>
       </c>
       <c r="C208" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D208" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F208" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5574,13 +5972,13 @@
         <v>99</v>
       </c>
       <c r="C209" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D209" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F209" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5591,13 +5989,13 @@
         <v>35</v>
       </c>
       <c r="C210" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D210" t="s">
         <v>30</v>
       </c>
       <c r="F210" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5608,13 +6006,13 @@
         <v>98</v>
       </c>
       <c r="C211" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D211" t="s">
         <v>30</v>
       </c>
       <c r="F211" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5625,13 +6023,13 @@
         <v>97</v>
       </c>
       <c r="C212" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D212" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F212" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5642,13 +6040,13 @@
         <v>34</v>
       </c>
       <c r="C213" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D213" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F213" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5659,13 +6057,13 @@
         <v>33</v>
       </c>
       <c r="C214" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D214" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F214" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5673,16 +6071,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C215" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D215" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F215" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5690,17 +6088,17 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C216" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D216" t="str">
         <f>"P_"&amp;C216</f>
         <v>P_RXD0</v>
       </c>
       <c r="F216" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5708,17 +6106,17 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C217" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D217" t="str">
         <f>"P_"&amp;C217</f>
         <v>P_RXD3</v>
       </c>
       <c r="F217" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5726,16 +6124,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C218" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F218" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5743,16 +6141,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C219" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D219" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F219" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5760,16 +6158,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C220" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D220" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F220" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5777,16 +6175,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C221" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D221" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F221" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5794,16 +6192,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C222" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D222" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F222" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5811,16 +6209,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C223" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F223" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5828,16 +6226,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D224" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F224" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5845,16 +6243,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C225" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F225" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5862,17 +6260,17 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C226" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D226" t="str">
         <f>"P_"&amp;C226</f>
         <v>P_RXD2</v>
       </c>
       <c r="F226" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5880,17 +6278,17 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C227" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D227" t="str">
         <f>"P_"&amp;C227</f>
         <v>P_RXD4</v>
       </c>
       <c r="F227" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5898,17 +6296,17 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C228" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D228" t="str">
         <f>"P_"&amp;C228</f>
         <v>P_RXD7</v>
       </c>
       <c r="F228" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5916,16 +6314,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C229" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D229" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F229" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5933,16 +6331,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C230" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D230" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F230" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5950,16 +6348,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C231" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D231" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F231" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5967,16 +6365,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C232" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D232" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F232" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5984,16 +6382,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C233" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D233" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F233" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6001,16 +6399,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C234" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D234" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F234" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6018,17 +6416,17 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C235" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D235" t="str">
         <f>"P_"&amp;C235</f>
         <v>P_RXD1</v>
       </c>
       <c r="F235" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6036,16 +6434,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C236" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D236" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F236" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6053,16 +6451,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C237" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D237" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F237" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6070,16 +6468,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C238" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D238" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F238" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6087,16 +6485,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C239" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D239" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F239" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6104,16 +6502,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C240" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D240" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F240" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6121,16 +6519,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C241" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D241" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F241" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6138,16 +6536,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D242" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F242" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6155,16 +6553,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C243" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D243" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F243" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6172,16 +6570,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C244" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D244" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F244" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6189,16 +6587,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C245" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D245" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F245" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6206,16 +6604,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C246" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D246" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F246" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6223,16 +6621,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C247" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D247" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F247" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6240,16 +6638,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C248" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D248" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F248" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6257,16 +6655,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C249" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D249" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F249" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6274,16 +6672,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C250" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D250" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F250" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6291,17 +6689,17 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C251" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D251" t="str">
         <f>"P_"&amp;C251</f>
         <v>P_TXD0</v>
       </c>
       <c r="F251" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6309,16 +6707,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C252" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D252" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F252" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6326,16 +6724,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C253" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D253" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F253" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6343,16 +6741,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C254" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D254" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F254" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6360,16 +6758,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C255" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D255" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F255" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6377,16 +6775,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C256" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D256" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F256" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6394,16 +6792,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C257" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F257" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -6411,16 +6809,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C258" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D258" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F258" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -6428,16 +6826,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C259" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D259" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F259" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6445,7 +6843,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C260" t="s">
         <v>30</v>
@@ -6454,7 +6852,7 @@
         <v>30</v>
       </c>
       <c r="F260" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6462,17 +6860,17 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C261" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D261" t="str">
         <f>"P_"&amp;C261</f>
         <v>P_TXD1</v>
       </c>
       <c r="F261" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6480,17 +6878,17 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C262" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D262" t="str">
         <f>"P_"&amp;C262</f>
         <v>P_TXD2</v>
       </c>
       <c r="F262" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6498,16 +6896,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C263" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D263" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F263" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6515,16 +6913,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C264" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D264" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F264" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6532,16 +6930,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C265" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D265" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F265" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6549,16 +6947,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C266" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D266" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F266" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -6566,16 +6964,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C267" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D267" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F267" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -6583,16 +6981,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C268" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D268" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F268" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6600,17 +6998,17 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C269" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D269" t="str">
         <f>"P_"&amp;C269</f>
         <v>P_TXD4</v>
       </c>
       <c r="F269" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -6618,17 +7016,17 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C270" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D270" t="str">
         <f>"P_"&amp;C270</f>
         <v>P_TXD3</v>
       </c>
       <c r="F270" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -6636,17 +7034,17 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C271" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D271" t="str">
         <f>"P_"&amp;C271</f>
         <v>P_TXD5</v>
       </c>
       <c r="F271" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6654,16 +7052,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C272" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D272" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F272" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6671,16 +7069,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C273" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D273" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F273" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6688,16 +7086,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C274" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D274" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F274" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6705,16 +7103,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C275" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D275" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F275" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6722,16 +7120,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C276" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D276" t="s">
         <v>30</v>
       </c>
       <c r="F276" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6739,16 +7137,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C277" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D277" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F277" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6756,17 +7154,17 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C278" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D278" t="str">
         <f>"P_"&amp;C278</f>
         <v>P_TXD6</v>
       </c>
       <c r="F278" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6774,17 +7172,17 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C279" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D279" t="str">
         <f>"P_"&amp;C279</f>
         <v>P_TXD7</v>
       </c>
       <c r="F279" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6792,16 +7190,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C280" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D280" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F280" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6809,16 +7207,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C281" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D281" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F281" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6826,16 +7224,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C282" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D282" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F282" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6843,16 +7241,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C283" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D283" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F283" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6860,16 +7258,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C284" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D284" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F284" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6877,16 +7275,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C285" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F285" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6894,16 +7292,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C286" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D286" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F286" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6911,16 +7309,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C287" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F287" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6928,16 +7326,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C288" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D288" t="s">
         <v>30</v>
       </c>
       <c r="F288" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6945,16 +7343,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C289" t="s">
         <v>80</v>
       </c>
       <c r="D289" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F289" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6962,16 +7360,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C290" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D290" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F290" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6979,16 +7377,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C291" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D291" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F291" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6996,16 +7394,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C292" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D292" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F292" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -7013,7 +7411,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C293" t="s">
         <v>30</v>
@@ -7022,7 +7420,7 @@
         <v>30</v>
       </c>
       <c r="F293" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -7030,16 +7428,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C294" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D294" t="s">
         <v>30</v>
       </c>
       <c r="F294" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -7047,16 +7445,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C295" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F295" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7064,16 +7462,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C296" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D296" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F296" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7081,16 +7479,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C297" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F297" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -7098,16 +7496,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C298" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D298" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F298" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7115,16 +7513,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C299" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D299" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F299" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -7132,16 +7530,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C300" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D300" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F300" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7149,16 +7547,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C301" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D301" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F301" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -7166,16 +7564,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C302" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D302" t="s">
         <v>30</v>
       </c>
       <c r="F302" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -7183,16 +7581,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C303" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D303" t="s">
         <v>30</v>
       </c>
       <c r="F303" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -7200,16 +7598,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C304" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D304" t="s">
         <v>30</v>
       </c>
       <c r="F304" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -7217,16 +7615,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C305" t="s">
+        <v>361</v>
+      </c>
+      <c r="D305" t="s">
         <v>362</v>
       </c>
-      <c r="D305" t="s">
-        <v>363</v>
-      </c>
       <c r="F305" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -7234,16 +7632,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C306" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D306" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F306" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -7251,16 +7649,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C307" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D307" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F307" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -7268,16 +7666,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C308" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D308" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F308" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -7285,16 +7683,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C309" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D309" t="s">
         <v>30</v>
       </c>
       <c r="F309" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -7302,16 +7700,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C310" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D310" t="s">
         <v>30</v>
       </c>
       <c r="F310" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -7319,16 +7717,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C311" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D311" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F311" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -7336,16 +7734,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C312" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D312" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F312" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -7353,13 +7751,13 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C313" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F313" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -7367,16 +7765,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C314" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D314" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F314" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -7384,16 +7782,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C315" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D315" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F315" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -7401,16 +7799,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C316" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D316" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F316" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -7418,16 +7816,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C317" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D317" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F317" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -7435,16 +7833,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C318" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D318" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F318" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -7452,16 +7850,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C319" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D319" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F319" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -7469,16 +7867,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C320" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D320" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F320" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7486,16 +7884,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C321" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D321" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F321" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7503,16 +7901,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C322" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D322" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F322" t="s">
-        <v>377</v>
+        <v>528</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7529,7 +7927,7 @@
         <v>30</v>
       </c>
       <c r="F323" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7546,7 +7944,7 @@
         <v>30</v>
       </c>
       <c r="F324" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7563,7 +7961,7 @@
         <v>30</v>
       </c>
       <c r="F325" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7580,7 +7978,7 @@
         <v>30</v>
       </c>
       <c r="F326" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -7588,7 +7986,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C327" t="s">
         <v>30</v>
@@ -7597,7 +7995,7 @@
         <v>30</v>
       </c>
       <c r="F327" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7605,16 +8003,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C328" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D328" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F328" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7622,16 +8020,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C329" t="s">
         <v>4</v>
       </c>
       <c r="D329" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F329" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7639,16 +8037,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C330" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D330" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F330" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7656,7 +8054,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C331" t="s">
         <v>30</v>
@@ -7665,7 +8063,7 @@
         <v>30</v>
       </c>
       <c r="F331" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7673,7 +8071,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C332" t="s">
         <v>30</v>
@@ -7682,7 +8080,7 @@
         <v>30</v>
       </c>
       <c r="F332" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7690,16 +8088,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C333" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D333" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F333" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7707,7 +8105,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C334" t="s">
         <v>30</v>
@@ -7716,7 +8114,7 @@
         <v>30</v>
       </c>
       <c r="F334" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7724,16 +8122,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C335" t="s">
+        <v>381</v>
+      </c>
+      <c r="D335" t="s">
         <v>384</v>
       </c>
-      <c r="D335" t="s">
-        <v>387</v>
-      </c>
       <c r="F335" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7741,7 +8139,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C336" t="s">
         <v>30</v>
@@ -7750,7 +8148,7 @@
         <v>30</v>
       </c>
       <c r="F336" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7758,7 +8156,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C337" t="s">
         <v>30</v>
@@ -7767,7 +8165,7 @@
         <v>30</v>
       </c>
       <c r="F337" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7775,16 +8173,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C338" t="s">
         <v>6</v>
       </c>
       <c r="D338" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F338" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7792,16 +8190,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
       </c>
       <c r="D339" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F339" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7809,16 +8207,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C340" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D340" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F340" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7826,7 +8224,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C341" t="s">
         <v>30</v>
@@ -7835,7 +8233,7 @@
         <v>30</v>
       </c>
       <c r="F341" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7843,7 +8241,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C342" t="s">
         <v>30</v>
@@ -7852,7 +8250,7 @@
         <v>30</v>
       </c>
       <c r="F342" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7860,7 +8258,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C343" t="s">
         <v>30</v>
@@ -7869,7 +8267,7 @@
         <v>30</v>
       </c>
       <c r="F343" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7877,7 +8275,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C344" t="s">
         <v>30</v>
@@ -7886,7 +8284,7 @@
         <v>30</v>
       </c>
       <c r="F344" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7894,7 +8292,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C345" t="s">
         <v>30</v>
@@ -7903,7 +8301,7 @@
         <v>30</v>
       </c>
       <c r="F345" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7911,7 +8309,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C346" t="s">
         <v>30</v>
@@ -7920,7 +8318,7 @@
         <v>30</v>
       </c>
       <c r="F346" t="s">
-        <v>380</v>
+        <v>529</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -7934,10 +8332,10 @@
         <v>101</v>
       </c>
       <c r="D347" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F347" t="s">
-        <v>396</v>
+        <v>525</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -7951,10 +8349,10 @@
         <v>37</v>
       </c>
       <c r="D348" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F348" t="s">
-        <v>396</v>
+        <v>525</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -7968,7 +8366,7 @@
         <v>100</v>
       </c>
       <c r="F349" t="s">
-        <v>396</v>
+        <v>525</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -7979,13 +8377,13 @@
         <v>4</v>
       </c>
       <c r="C350" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D350" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F350" t="s">
-        <v>396</v>
+        <v>525</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -7999,10 +8397,10 @@
         <v>131</v>
       </c>
       <c r="D351" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F351" t="s">
-        <v>396</v>
+        <v>525</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -8016,10 +8414,10 @@
         <v>132</v>
       </c>
       <c r="D352" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F352" t="s">
-        <v>396</v>
+        <v>525</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -8030,13 +8428,13 @@
         <v>7</v>
       </c>
       <c r="C353" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D353" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F353" t="s">
-        <v>396</v>
+        <v>525</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -8047,13 +8445,13 @@
         <v>8</v>
       </c>
       <c r="C354" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D354" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F354" t="s">
-        <v>396</v>
+        <v>525</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -8064,13 +8462,13 @@
         <v>1</v>
       </c>
       <c r="C355" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D355" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F355" t="s">
-        <v>402</v>
+        <v>530</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -8081,13 +8479,13 @@
         <v>2</v>
       </c>
       <c r="C356" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D356" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F356" t="s">
-        <v>402</v>
+        <v>530</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -8098,13 +8496,13 @@
         <v>3</v>
       </c>
       <c r="C357" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D357" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F357" t="s">
-        <v>402</v>
+        <v>530</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -8115,13 +8513,13 @@
         <v>4</v>
       </c>
       <c r="C358" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D358" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F358" t="s">
-        <v>402</v>
+        <v>530</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -8132,13 +8530,13 @@
         <v>5</v>
       </c>
       <c r="C359" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D359" t="s">
         <v>30</v>
       </c>
       <c r="F359" t="s">
-        <v>402</v>
+        <v>530</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -8149,13 +8547,13 @@
         <v>6</v>
       </c>
       <c r="C360" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D360" t="s">
         <v>30</v>
       </c>
       <c r="F360" t="s">
-        <v>402</v>
+        <v>530</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -8166,13 +8564,13 @@
         <v>7</v>
       </c>
       <c r="C361" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D361" t="s">
         <v>30</v>
       </c>
       <c r="F361" t="s">
-        <v>402</v>
+        <v>530</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -8183,13 +8581,13 @@
         <v>8</v>
       </c>
       <c r="C362" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D362" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F362" t="s">
-        <v>402</v>
+        <v>530</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -8200,13 +8598,13 @@
         <v>9</v>
       </c>
       <c r="C363" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D363" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F363" t="s">
-        <v>402</v>
+        <v>530</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -8217,13 +8615,13 @@
         <v>10</v>
       </c>
       <c r="C364" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D364" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F364" t="s">
-        <v>402</v>
+        <v>530</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -8234,13 +8632,13 @@
         <v>11</v>
       </c>
       <c r="C365" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F365" t="s">
-        <v>402</v>
+        <v>530</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -8251,13 +8649,13 @@
         <v>1</v>
       </c>
       <c r="C366" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D366" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F366" t="s">
-        <v>427</v>
+        <v>531</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -8268,13 +8666,13 @@
         <v>2</v>
       </c>
       <c r="C367" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D367" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F367" t="s">
-        <v>427</v>
+        <v>531</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -8285,13 +8683,13 @@
         <v>3</v>
       </c>
       <c r="C368" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D368" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F368" t="s">
-        <v>427</v>
+        <v>531</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -8302,13 +8700,13 @@
         <v>4</v>
       </c>
       <c r="C369" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D369" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F369" t="s">
-        <v>427</v>
+        <v>531</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -8319,13 +8717,13 @@
         <v>5</v>
       </c>
       <c r="C370" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D370" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F370" t="s">
-        <v>427</v>
+        <v>531</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -8336,13 +8734,13 @@
         <v>6</v>
       </c>
       <c r="C371" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D371" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F371" t="s">
-        <v>427</v>
+        <v>531</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -8353,13 +8751,13 @@
         <v>7</v>
       </c>
       <c r="C372" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D372" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F372" t="s">
-        <v>427</v>
+        <v>531</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -8370,13 +8768,13 @@
         <v>8</v>
       </c>
       <c r="C373" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D373" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F373" t="s">
-        <v>427</v>
+        <v>531</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -8387,13 +8785,13 @@
         <v>9</v>
       </c>
       <c r="C374" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D374" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F374" t="s">
-        <v>427</v>
+        <v>531</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -8404,13 +8802,13 @@
         <v>10</v>
       </c>
       <c r="C375" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D375" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F375" t="s">
-        <v>427</v>
+        <v>531</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -8418,13 +8816,13 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C376" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F376" t="s">
-        <v>427</v>
+        <v>531</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -8432,13 +8830,13 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C377" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F377" t="s">
-        <v>427</v>
+        <v>531</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -8449,13 +8847,13 @@
         <v>1</v>
       </c>
       <c r="C378" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D378" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F378" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -8466,13 +8864,13 @@
         <v>2</v>
       </c>
       <c r="C379" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D379" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F379" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -8483,13 +8881,13 @@
         <v>3</v>
       </c>
       <c r="C380" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D380" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F380" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -8500,13 +8898,13 @@
         <v>4</v>
       </c>
       <c r="C381" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D381" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F381" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -8517,13 +8915,13 @@
         <v>5</v>
       </c>
       <c r="C382" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D382" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F382" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -8534,13 +8932,13 @@
         <v>6</v>
       </c>
       <c r="C383" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D383" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F383" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8551,13 +8949,13 @@
         <v>7</v>
       </c>
       <c r="C384" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D384" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F384" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8568,13 +8966,13 @@
         <v>8</v>
       </c>
       <c r="C385" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D385" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F385" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -8585,13 +8983,13 @@
         <v>9</v>
       </c>
       <c r="C386" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D386" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F386" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -8602,13 +9000,13 @@
         <v>10</v>
       </c>
       <c r="C387" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D387" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F387" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8619,13 +9017,13 @@
         <v>11</v>
       </c>
       <c r="C388" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D388" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F388" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -8636,13 +9034,13 @@
         <v>12</v>
       </c>
       <c r="C389" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D389" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F389" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -8653,13 +9051,13 @@
         <v>13</v>
       </c>
       <c r="C390" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D390" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F390" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -8670,13 +9068,13 @@
         <v>14</v>
       </c>
       <c r="C391" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D391" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F391" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -8687,13 +9085,13 @@
         <v>15</v>
       </c>
       <c r="C392" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D392" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F392" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -8704,13 +9102,13 @@
         <v>16</v>
       </c>
       <c r="C393" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D393" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F393" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -8721,13 +9119,13 @@
         <v>17</v>
       </c>
       <c r="C394" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D394" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F394" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -8738,436 +9136,1384 @@
         <v>18</v>
       </c>
       <c r="C395" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D395" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F395" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
     </row>
     <row r="396" spans="1:6">
       <c r="A396">
         <v>395</v>
       </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396" t="s">
+        <v>448</v>
+      </c>
+      <c r="D396" t="s">
+        <v>450</v>
+      </c>
+      <c r="F396" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="397" spans="1:6">
       <c r="A397">
         <v>396</v>
       </c>
+      <c r="B397">
+        <v>4</v>
+      </c>
+      <c r="C397" t="s">
+        <v>448</v>
+      </c>
+      <c r="D397" t="s">
+        <v>450</v>
+      </c>
+      <c r="F397" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398">
         <v>397</v>
       </c>
+      <c r="B398">
+        <v>2</v>
+      </c>
+      <c r="C398" t="s">
+        <v>30</v>
+      </c>
+      <c r="D398" t="s">
+        <v>30</v>
+      </c>
+      <c r="F398" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="399" spans="1:6">
       <c r="A399">
         <v>398</v>
       </c>
+      <c r="B399">
+        <v>5</v>
+      </c>
+      <c r="C399" t="s">
+        <v>30</v>
+      </c>
+      <c r="D399" t="s">
+        <v>30</v>
+      </c>
+      <c r="F399" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:1">
+      <c r="B400">
+        <v>3</v>
+      </c>
+      <c r="C400" t="s">
+        <v>449</v>
+      </c>
+      <c r="D400" t="s">
+        <v>141</v>
+      </c>
+      <c r="F400" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
       <c r="A401">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:1">
+      <c r="B401">
+        <v>6</v>
+      </c>
+      <c r="C401" t="s">
+        <v>449</v>
+      </c>
+      <c r="D401" t="s">
+        <v>141</v>
+      </c>
+      <c r="F401" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
       <c r="A402">
         <v>401</v>
       </c>
-    </row>
-    <row r="403" spans="1:1">
+      <c r="B402">
+        <v>1</v>
+      </c>
+      <c r="C402" t="s">
+        <v>30</v>
+      </c>
+      <c r="D402" t="s">
+        <v>30</v>
+      </c>
+      <c r="F402" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
       <c r="A403">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:1">
+      <c r="B403">
+        <v>2</v>
+      </c>
+      <c r="C403" t="s">
+        <v>451</v>
+      </c>
+      <c r="D403" t="s">
+        <v>453</v>
+      </c>
+      <c r="F403" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
       <c r="A404">
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:1">
+      <c r="B404">
+        <v>3</v>
+      </c>
+      <c r="C404" t="s">
+        <v>141</v>
+      </c>
+      <c r="D404" t="s">
+        <v>141</v>
+      </c>
+      <c r="F404" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
       <c r="A405">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:1">
+      <c r="B405">
+        <v>4</v>
+      </c>
+      <c r="C405" t="s">
+        <v>452</v>
+      </c>
+      <c r="D405" t="s">
+        <v>454</v>
+      </c>
+      <c r="F405" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
       <c r="A406">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:1">
+      <c r="B406">
+        <v>5</v>
+      </c>
+      <c r="C406" t="s">
+        <v>452</v>
+      </c>
+      <c r="D406" t="s">
+        <v>455</v>
+      </c>
+      <c r="F406" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
       <c r="A407">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:1">
+      <c r="B407">
+        <v>6</v>
+      </c>
+      <c r="C407" t="s">
+        <v>425</v>
+      </c>
+      <c r="D407" t="s">
+        <v>158</v>
+      </c>
+      <c r="F407" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
       <c r="A408">
         <v>407</v>
       </c>
-    </row>
-    <row r="409" spans="1:1">
+      <c r="B408">
+        <v>7</v>
+      </c>
+      <c r="C408" t="s">
+        <v>131</v>
+      </c>
+      <c r="D408" t="s">
+        <v>456</v>
+      </c>
+      <c r="F408" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
       <c r="A409">
         <v>408</v>
       </c>
-    </row>
-    <row r="410" spans="1:1">
+      <c r="B409">
+        <v>8</v>
+      </c>
+      <c r="C409" t="s">
+        <v>132</v>
+      </c>
+      <c r="D409" t="s">
+        <v>457</v>
+      </c>
+      <c r="F409" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
       <c r="A410">
         <v>409</v>
       </c>
-    </row>
-    <row r="411" spans="1:1">
+      <c r="B410">
+        <v>1</v>
+      </c>
+      <c r="C410" t="s">
+        <v>451</v>
+      </c>
+      <c r="D410" t="s">
+        <v>347</v>
+      </c>
+      <c r="F410" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
       <c r="A411">
         <v>410</v>
       </c>
-    </row>
-    <row r="412" spans="1:1">
+      <c r="B411">
+        <v>2</v>
+      </c>
+      <c r="C411" t="s">
+        <v>30</v>
+      </c>
+      <c r="D411" t="s">
+        <v>30</v>
+      </c>
+      <c r="F411" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
       <c r="A412">
         <v>411</v>
       </c>
-    </row>
-    <row r="413" spans="1:1">
+      <c r="B412">
+        <v>3</v>
+      </c>
+      <c r="C412" t="s">
+        <v>141</v>
+      </c>
+      <c r="D412" t="s">
+        <v>141</v>
+      </c>
+      <c r="F412" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
       <c r="A413">
         <v>412</v>
       </c>
-    </row>
-    <row r="414" spans="1:1">
+      <c r="B413">
+        <v>4</v>
+      </c>
+      <c r="C413" t="s">
+        <v>452</v>
+      </c>
+      <c r="D413" t="s">
+        <v>459</v>
+      </c>
+      <c r="F413" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
       <c r="A414">
         <v>413</v>
       </c>
-    </row>
-    <row r="415" spans="1:1">
+      <c r="B414">
+        <v>5</v>
+      </c>
+      <c r="C414" t="s">
+        <v>458</v>
+      </c>
+      <c r="D414" t="s">
+        <v>460</v>
+      </c>
+      <c r="F414" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
       <c r="A415">
         <v>414</v>
       </c>
-    </row>
-    <row r="416" spans="1:1">
+      <c r="B415">
+        <v>6</v>
+      </c>
+      <c r="C415" t="s">
+        <v>390</v>
+      </c>
+      <c r="D415" t="s">
+        <v>347</v>
+      </c>
+      <c r="F415" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
       <c r="A416">
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:1">
+      <c r="B416">
+        <v>1</v>
+      </c>
+      <c r="C416" t="s">
+        <v>461</v>
+      </c>
+      <c r="D416" t="s">
+        <v>467</v>
+      </c>
+      <c r="F416" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
       <c r="A417">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:1">
+      <c r="B417">
+        <v>2</v>
+      </c>
+      <c r="C417" t="s">
+        <v>141</v>
+      </c>
+      <c r="D417" t="s">
+        <v>141</v>
+      </c>
+      <c r="F417" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
       <c r="A418">
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:1">
+      <c r="B418">
+        <v>3</v>
+      </c>
+      <c r="C418" t="s">
+        <v>462</v>
+      </c>
+      <c r="D418" t="s">
+        <v>468</v>
+      </c>
+      <c r="F418" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
       <c r="A419">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:1">
+      <c r="B419">
+        <v>4</v>
+      </c>
+      <c r="C419" t="s">
+        <v>463</v>
+      </c>
+      <c r="D419" t="s">
+        <v>469</v>
+      </c>
+      <c r="F419" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
       <c r="A420">
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:1">
+      <c r="B420">
+        <v>5</v>
+      </c>
+      <c r="C420" t="s">
+        <v>451</v>
+      </c>
+      <c r="D420" t="s">
+        <v>466</v>
+      </c>
+      <c r="F420" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
       <c r="A421">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:1">
+      <c r="B421">
+        <v>6</v>
+      </c>
+      <c r="C421" t="s">
+        <v>464</v>
+      </c>
+      <c r="D421" t="s">
+        <v>470</v>
+      </c>
+      <c r="F421" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
       <c r="A422">
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:1">
+      <c r="B422">
+        <v>7</v>
+      </c>
+      <c r="C422" t="s">
+        <v>465</v>
+      </c>
+      <c r="D422" t="s">
+        <v>471</v>
+      </c>
+      <c r="F422" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
       <c r="A423">
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:1">
+      <c r="B423">
+        <v>8</v>
+      </c>
+      <c r="C423" t="s">
+        <v>425</v>
+      </c>
+      <c r="D423" t="s">
+        <v>466</v>
+      </c>
+      <c r="F423" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
       <c r="A424">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:1">
+      <c r="B424">
+        <v>1</v>
+      </c>
+      <c r="C424" t="s">
+        <v>472</v>
+      </c>
+      <c r="D424" t="s">
+        <v>141</v>
+      </c>
+      <c r="F424" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
       <c r="A425">
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:1">
+      <c r="B425">
+        <v>2</v>
+      </c>
+      <c r="C425" t="s">
+        <v>37</v>
+      </c>
+      <c r="D425" t="s">
+        <v>141</v>
+      </c>
+      <c r="F425" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
       <c r="A426">
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:1">
+      <c r="B426">
+        <v>3</v>
+      </c>
+      <c r="C426" t="s">
+        <v>100</v>
+      </c>
+      <c r="D426" t="s">
+        <v>482</v>
+      </c>
+      <c r="F426" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
       <c r="A427">
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:1">
+      <c r="B427">
+        <v>4</v>
+      </c>
+      <c r="C427" t="s">
+        <v>36</v>
+      </c>
+      <c r="D427" t="s">
+        <v>483</v>
+      </c>
+      <c r="F427" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
       <c r="A428">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:1">
+      <c r="B428">
+        <v>5</v>
+      </c>
+      <c r="C428" t="s">
+        <v>99</v>
+      </c>
+      <c r="D428" t="s">
+        <v>30</v>
+      </c>
+      <c r="F428" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
       <c r="A429">
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:1">
+      <c r="B429">
+        <v>6</v>
+      </c>
+      <c r="C429" t="s">
+        <v>35</v>
+      </c>
+      <c r="D429" t="s">
+        <v>484</v>
+      </c>
+      <c r="F429" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
       <c r="A430">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:1">
+      <c r="B430">
+        <v>7</v>
+      </c>
+      <c r="C430" t="s">
+        <v>98</v>
+      </c>
+      <c r="D430" t="s">
+        <v>30</v>
+      </c>
+      <c r="F430" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
       <c r="A431">
         <v>430</v>
       </c>
-    </row>
-    <row r="432" spans="1:1">
+      <c r="B431">
+        <v>8</v>
+      </c>
+      <c r="C431" t="s">
+        <v>97</v>
+      </c>
+      <c r="D431" t="s">
+        <v>30</v>
+      </c>
+      <c r="F431" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
       <c r="A432">
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:1">
+      <c r="B432">
+        <v>9</v>
+      </c>
+      <c r="C432" t="s">
+        <v>34</v>
+      </c>
+      <c r="D432" t="s">
+        <v>30</v>
+      </c>
+      <c r="F432" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
       <c r="A433">
         <v>432</v>
       </c>
-    </row>
-    <row r="434" spans="1:1">
+      <c r="B433">
+        <v>10</v>
+      </c>
+      <c r="C433" t="s">
+        <v>141</v>
+      </c>
+      <c r="D433" t="s">
+        <v>141</v>
+      </c>
+      <c r="F433" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
       <c r="A434">
         <v>433</v>
       </c>
-    </row>
-    <row r="435" spans="1:1">
+      <c r="B434">
+        <v>11</v>
+      </c>
+      <c r="C434" t="s">
+        <v>473</v>
+      </c>
+      <c r="D434" t="s">
+        <v>30</v>
+      </c>
+      <c r="F434" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
       <c r="A435">
         <v>434</v>
       </c>
-    </row>
-    <row r="436" spans="1:1">
+      <c r="B435">
+        <v>12</v>
+      </c>
+      <c r="C435" t="s">
+        <v>474</v>
+      </c>
+      <c r="D435" t="s">
+        <v>30</v>
+      </c>
+      <c r="F435" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
       <c r="A436">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:1">
+      <c r="B436">
+        <v>13</v>
+      </c>
+      <c r="C436" t="s">
+        <v>475</v>
+      </c>
+      <c r="D436" t="s">
+        <v>30</v>
+      </c>
+      <c r="F436" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
       <c r="A437">
         <v>436</v>
       </c>
-    </row>
-    <row r="438" spans="1:1">
+      <c r="B437">
+        <v>14</v>
+      </c>
+      <c r="C437" t="s">
+        <v>476</v>
+      </c>
+      <c r="D437" t="s">
+        <v>485</v>
+      </c>
+      <c r="F437" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
       <c r="A438">
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:1">
+      <c r="B438">
+        <v>15</v>
+      </c>
+      <c r="C438" t="s">
+        <v>477</v>
+      </c>
+      <c r="D438" t="s">
+        <v>30</v>
+      </c>
+      <c r="F438" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
       <c r="A439">
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:1">
+      <c r="B439">
+        <v>16</v>
+      </c>
+      <c r="C439" t="s">
+        <v>478</v>
+      </c>
+      <c r="D439" t="s">
+        <v>486</v>
+      </c>
+      <c r="F439" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
       <c r="A440">
         <v>439</v>
       </c>
-    </row>
-    <row r="441" spans="1:1">
+      <c r="B440">
+        <v>17</v>
+      </c>
+      <c r="C440" t="s">
+        <v>479</v>
+      </c>
+      <c r="D440" t="s">
+        <v>30</v>
+      </c>
+      <c r="F440" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
       <c r="A441">
         <v>440</v>
       </c>
-    </row>
-    <row r="442" spans="1:1">
+      <c r="B441">
+        <v>18</v>
+      </c>
+      <c r="C441" t="s">
+        <v>480</v>
+      </c>
+      <c r="D441" t="s">
+        <v>487</v>
+      </c>
+      <c r="F441" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
       <c r="A442">
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:1">
+      <c r="B442">
+        <v>19</v>
+      </c>
+      <c r="C442" t="s">
+        <v>481</v>
+      </c>
+      <c r="D442" t="s">
+        <v>141</v>
+      </c>
+      <c r="F442" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
       <c r="A443">
         <v>442</v>
       </c>
-    </row>
-    <row r="444" spans="1:1">
+      <c r="B443">
+        <v>20</v>
+      </c>
+      <c r="C443" t="s">
+        <v>390</v>
+      </c>
+      <c r="D443" t="s">
+        <v>158</v>
+      </c>
+      <c r="F443" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
       <c r="A444">
         <v>443</v>
       </c>
-    </row>
-    <row r="445" spans="1:1">
+      <c r="B444">
+        <v>1</v>
+      </c>
+      <c r="C444" t="s">
+        <v>488</v>
+      </c>
+      <c r="D444" t="s">
+        <v>456</v>
+      </c>
+      <c r="F444" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
       <c r="A445">
         <v>444</v>
       </c>
-    </row>
-    <row r="446" spans="1:1">
+      <c r="B445">
+        <v>2</v>
+      </c>
+      <c r="C445" t="s">
+        <v>489</v>
+      </c>
+      <c r="D445" t="s">
+        <v>457</v>
+      </c>
+      <c r="F445" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
       <c r="A446">
         <v>445</v>
       </c>
-    </row>
-    <row r="447" spans="1:1">
+      <c r="B446">
+        <v>3</v>
+      </c>
+      <c r="C446" t="s">
+        <v>490</v>
+      </c>
+      <c r="D446" t="s">
+        <v>30</v>
+      </c>
+      <c r="F446" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
       <c r="A447">
         <v>446</v>
       </c>
-    </row>
-    <row r="448" spans="1:1">
+      <c r="B447">
+        <v>4</v>
+      </c>
+      <c r="C447" t="s">
+        <v>491</v>
+      </c>
+      <c r="D447" t="s">
+        <v>30</v>
+      </c>
+      <c r="F447" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
       <c r="A448">
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:1">
+      <c r="B448">
+        <v>5</v>
+      </c>
+      <c r="C448" t="s">
+        <v>492</v>
+      </c>
+      <c r="D448" t="s">
+        <v>392</v>
+      </c>
+      <c r="F448" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
       <c r="A449">
         <v>448</v>
       </c>
-    </row>
-    <row r="450" spans="1:1">
+      <c r="B449">
+        <v>6</v>
+      </c>
+      <c r="C449" t="s">
+        <v>493</v>
+      </c>
+      <c r="D449" t="s">
+        <v>391</v>
+      </c>
+      <c r="F449" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
       <c r="A450">
         <v>449</v>
       </c>
-    </row>
-    <row r="451" spans="1:1">
+      <c r="B450">
+        <v>7</v>
+      </c>
+      <c r="C450" t="s">
+        <v>494</v>
+      </c>
+      <c r="D450" t="s">
+        <v>30</v>
+      </c>
+      <c r="F450" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
       <c r="A451">
         <v>450</v>
       </c>
-    </row>
-    <row r="452" spans="1:1">
+      <c r="B451">
+        <v>8</v>
+      </c>
+      <c r="C451" t="s">
+        <v>495</v>
+      </c>
+      <c r="D451" t="s">
+        <v>30</v>
+      </c>
+      <c r="F451" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
       <c r="A452">
         <v>451</v>
       </c>
-    </row>
-    <row r="453" spans="1:1">
+      <c r="B452">
+        <v>9</v>
+      </c>
+      <c r="C452" t="s">
+        <v>141</v>
+      </c>
+      <c r="D452" t="s">
+        <v>141</v>
+      </c>
+      <c r="F452" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
       <c r="A453">
         <v>452</v>
       </c>
-    </row>
-    <row r="454" spans="1:1">
+      <c r="B453">
+        <v>10</v>
+      </c>
+      <c r="C453" t="s">
+        <v>496</v>
+      </c>
+      <c r="D453" t="s">
+        <v>30</v>
+      </c>
+      <c r="F453" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
       <c r="A454">
         <v>453</v>
       </c>
-    </row>
-    <row r="455" spans="1:1">
+      <c r="B454">
+        <v>11</v>
+      </c>
+      <c r="C454" t="s">
+        <v>497</v>
+      </c>
+      <c r="D454" t="s">
+        <v>30</v>
+      </c>
+      <c r="F454" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
       <c r="A455">
         <v>454</v>
       </c>
-    </row>
-    <row r="456" spans="1:1">
+      <c r="B455">
+        <v>12</v>
+      </c>
+      <c r="C455" t="s">
+        <v>498</v>
+      </c>
+      <c r="D455" t="s">
+        <v>30</v>
+      </c>
+      <c r="F455" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
       <c r="A456">
         <v>455</v>
       </c>
-    </row>
-    <row r="457" spans="1:1">
+      <c r="B456">
+        <v>13</v>
+      </c>
+      <c r="C456" t="s">
+        <v>499</v>
+      </c>
+      <c r="D456" t="s">
+        <v>30</v>
+      </c>
+      <c r="F456" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
       <c r="A457">
         <v>456</v>
       </c>
-    </row>
-    <row r="458" spans="1:1">
+      <c r="B457">
+        <v>14</v>
+      </c>
+      <c r="C457" t="s">
+        <v>500</v>
+      </c>
+      <c r="D457" t="s">
+        <v>506</v>
+      </c>
+      <c r="F457" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
       <c r="A458">
         <v>457</v>
       </c>
-    </row>
-    <row r="459" spans="1:1">
+      <c r="B458">
+        <v>15</v>
+      </c>
+      <c r="C458" t="s">
+        <v>501</v>
+      </c>
+      <c r="D458" t="s">
+        <v>507</v>
+      </c>
+      <c r="F458" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
       <c r="A459">
         <v>458</v>
       </c>
-    </row>
-    <row r="460" spans="1:1">
+      <c r="B459">
+        <v>16</v>
+      </c>
+      <c r="C459" t="s">
+        <v>502</v>
+      </c>
+      <c r="D459" t="s">
+        <v>508</v>
+      </c>
+      <c r="F459" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
       <c r="A460">
         <v>459</v>
       </c>
-    </row>
-    <row r="461" spans="1:1">
+      <c r="B460">
+        <v>17</v>
+      </c>
+      <c r="C460" t="s">
+        <v>503</v>
+      </c>
+      <c r="D460" t="s">
+        <v>509</v>
+      </c>
+      <c r="F460" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
       <c r="A461">
         <v>460</v>
       </c>
-    </row>
-    <row r="462" spans="1:1">
+      <c r="B461">
+        <v>18</v>
+      </c>
+      <c r="C461" t="s">
+        <v>100</v>
+      </c>
+      <c r="D461" t="s">
+        <v>510</v>
+      </c>
+      <c r="F461" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
       <c r="A462">
         <v>461</v>
       </c>
-    </row>
-    <row r="463" spans="1:1">
+      <c r="B462">
+        <v>19</v>
+      </c>
+      <c r="C462" t="s">
+        <v>132</v>
+      </c>
+      <c r="D462" t="s">
+        <v>511</v>
+      </c>
+      <c r="F462" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
       <c r="A463">
         <v>462</v>
       </c>
-    </row>
-    <row r="464" spans="1:1">
+      <c r="B463">
+        <v>20</v>
+      </c>
+      <c r="C463" t="s">
+        <v>131</v>
+      </c>
+      <c r="D463" t="s">
+        <v>512</v>
+      </c>
+      <c r="F463" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
       <c r="A464">
         <v>463</v>
       </c>
-    </row>
-    <row r="465" spans="1:1">
+      <c r="B464">
+        <v>21</v>
+      </c>
+      <c r="C464" t="s">
+        <v>390</v>
+      </c>
+      <c r="D464" t="s">
+        <v>158</v>
+      </c>
+      <c r="F464" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
       <c r="A465">
         <v>464</v>
       </c>
-    </row>
-    <row r="466" spans="1:1">
+      <c r="B465">
+        <v>22</v>
+      </c>
+      <c r="C465" t="s">
+        <v>101</v>
+      </c>
+      <c r="D465" t="s">
+        <v>513</v>
+      </c>
+      <c r="F465" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
       <c r="A466">
         <v>465</v>
       </c>
-    </row>
-    <row r="467" spans="1:1">
+      <c r="B466">
+        <v>23</v>
+      </c>
+      <c r="C466" t="s">
+        <v>37</v>
+      </c>
+      <c r="D466" t="s">
+        <v>514</v>
+      </c>
+      <c r="F466" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
       <c r="A467">
         <v>466</v>
       </c>
-    </row>
-    <row r="468" spans="1:1">
+      <c r="B467">
+        <v>24</v>
+      </c>
+      <c r="C467" t="s">
+        <v>504</v>
+      </c>
+      <c r="D467" t="s">
+        <v>515</v>
+      </c>
+      <c r="F467" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
       <c r="A468">
         <v>467</v>
       </c>
-    </row>
-    <row r="469" spans="1:1">
+      <c r="B468">
+        <v>25</v>
+      </c>
+      <c r="C468" t="s">
+        <v>505</v>
+      </c>
+      <c r="D468" t="s">
+        <v>141</v>
+      </c>
+      <c r="F468" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6">
       <c r="A469">
         <v>468</v>
       </c>
-    </row>
-    <row r="470" spans="1:1">
+      <c r="B469">
+        <v>1</v>
+      </c>
+      <c r="C469" t="s">
+        <v>516</v>
+      </c>
+      <c r="D469" t="s">
+        <v>158</v>
+      </c>
+      <c r="F469" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6">
       <c r="A470">
         <v>469</v>
       </c>
-    </row>
-    <row r="471" spans="1:1">
+      <c r="B470">
+        <v>2</v>
+      </c>
+      <c r="C470" t="s">
+        <v>141</v>
+      </c>
+      <c r="D470" t="s">
+        <v>141</v>
+      </c>
+      <c r="F470" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6">
       <c r="A471">
         <v>470</v>
       </c>
-    </row>
-    <row r="472" spans="1:1">
+      <c r="B471">
+        <v>3</v>
+      </c>
+      <c r="C471" t="s">
+        <v>517</v>
+      </c>
+      <c r="D471" t="s">
+        <v>521</v>
+      </c>
+      <c r="F471" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6">
       <c r="A472">
         <v>471</v>
       </c>
-    </row>
-    <row r="473" spans="1:1">
+      <c r="B472">
+        <v>4</v>
+      </c>
+      <c r="C472" t="s">
+        <v>518</v>
+      </c>
+      <c r="D472" t="s">
+        <v>522</v>
+      </c>
+      <c r="F472" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6">
       <c r="A473">
         <v>472</v>
       </c>
-    </row>
-    <row r="474" spans="1:1">
+      <c r="B473">
+        <v>5</v>
+      </c>
+      <c r="C473" t="s">
+        <v>519</v>
+      </c>
+      <c r="D473" t="s">
+        <v>141</v>
+      </c>
+      <c r="F473" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6">
       <c r="A474">
         <v>473</v>
       </c>
-    </row>
-    <row r="475" spans="1:1">
+      <c r="B474">
+        <v>6</v>
+      </c>
+      <c r="C474" t="s">
+        <v>520</v>
+      </c>
+      <c r="D474" t="s">
+        <v>523</v>
+      </c>
+      <c r="F474" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6">
       <c r="A475">
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476" spans="1:6">
       <c r="A476">
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:1">
+    <row r="477" spans="1:6">
       <c r="A477">
         <v>476</v>
       </c>
     </row>
-    <row r="478" spans="1:1">
+    <row r="478" spans="1:6">
       <c r="A478">
         <v>477</v>
       </c>
     </row>
-    <row r="479" spans="1:1">
+    <row r="479" spans="1:6">
       <c r="A479">
         <v>478</v>
       </c>
     </row>
-    <row r="480" spans="1:1">
+    <row r="480" spans="1:6">
       <c r="A480">
         <v>479</v>
       </c>
